--- a/output/People_PG_Analysis_Report.xlsx
+++ b/output/People_PG_Analysis_Report.xlsx
@@ -4146,11 +4146,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baistami | Himaja | Komal | No EHR | Soumya</t>
+          <t>Himaja | Komal | Soumya</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4428,11 +4428,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sukhman</t>
+          <t>Adrika | Sukhman</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -4706,11 +4706,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hiya | Mona</t>
+          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Adarsh | Aditya | Baistami | Cheruthan | Devaleena | Himaja | Javeriya | John | Komal | Madhur | Manasvi | Sakshi</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5552,11 +5552,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sara | Shivi | Soumya | Sowjanya | Sukhman | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -5610,11 +5610,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Devleena</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -6166,11 +6166,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Manasvi</t>
+          <t>Nabanita | Shruti</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -6828,11 +6828,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Adrika | Sukhman</t>
+          <t>Adrika | Baistami | Sukhman</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Baistami | Himaja | Komal | No EHR | Soumya</t>
+          <t>Himaja | Komal | Soumya</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hiya | Mona</t>
+          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sukhman</t>
+          <t>Adrika | Sukhman</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Adarsh | Aditya | Baistami | Cheruthan | Devaleena | Himaja | Javeriya | John | Komal | Madhur | Manasvi | Sakshi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Devleena</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Manasvi</t>
+          <t>Nabanita | Shruti</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Adrika | Sukhman</t>
+          <t>Adrika | Baistami | Sukhman</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sara | Shivi | Soumya | Sowjanya | Sukhman | Sutiksha | Suzanne | Tiisetso</t>
+          <t>Ananya | Devleena | Javeriya | John Mithi | Johnathan | Madhur | Manasvi | Priti | Sowjanya | Sutiksha | Suzanne | Tiisetso</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11853,17 +11853,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intracare</t>
+          <t>Hyde Park</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chaitanya</t>
+          <t>Devleena</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>at risk</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -11878,20 +11878,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Optimized Mobile Practitioners</t>
+          <t>Intracare</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manasvi</t>
+          <t>Chaitanya</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>very disappointment</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Add backup owner; reinforce support</t>
